--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd200-Cd200r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd200-Cd200r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.569613</v>
+        <v>80.87054666666667</v>
       </c>
       <c r="H2">
-        <v>196.708839</v>
+        <v>242.61164</v>
       </c>
       <c r="I2">
-        <v>0.6815983651189281</v>
+        <v>0.7161501349062054</v>
       </c>
       <c r="J2">
-        <v>0.681598365118928</v>
+        <v>0.7161501349062055</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.07783466666666666</v>
+        <v>10.376254</v>
       </c>
       <c r="N2">
-        <v>0.233504</v>
+        <v>31.128762</v>
       </c>
       <c r="O2">
-        <v>0.006481737759933703</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.006481737759933702</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>5.103588971317333</v>
+        <v>839.1333333321868</v>
       </c>
       <c r="R2">
-        <v>45.932300741856</v>
+        <v>7552.199999989681</v>
       </c>
       <c r="S2">
-        <v>0.004417941860300436</v>
+        <v>0.7161501349062054</v>
       </c>
       <c r="T2">
-        <v>0.004417941860300434</v>
+        <v>0.7161501349062055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.569613</v>
+        <v>4.561623333333333</v>
       </c>
       <c r="H3">
-        <v>196.708839</v>
+        <v>13.68487</v>
       </c>
       <c r="I3">
-        <v>0.6815983651189281</v>
+        <v>0.04039551233681073</v>
       </c>
       <c r="J3">
-        <v>0.681598365118928</v>
+        <v>0.04039551233681073</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.93046766666667</v>
+        <v>10.376254</v>
       </c>
       <c r="N3">
-        <v>35.791403</v>
+        <v>31.128762</v>
       </c>
       <c r="O3">
-        <v>0.9935182622400663</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9935182622400662</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>782.2761478123464</v>
+        <v>47.33256235899334</v>
       </c>
       <c r="R3">
-        <v>7040.485330311118</v>
+        <v>425.99306123094</v>
       </c>
       <c r="S3">
-        <v>0.6771804232586277</v>
+        <v>0.04039551233681073</v>
       </c>
       <c r="T3">
-        <v>0.6771804232586275</v>
+        <v>0.04039551233681073</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.561623333333333</v>
+        <v>27.01376833333333</v>
       </c>
       <c r="H4">
-        <v>13.68487</v>
+        <v>81.04130499999999</v>
       </c>
       <c r="I4">
-        <v>0.04741823024467683</v>
+        <v>0.2392207624857774</v>
       </c>
       <c r="J4">
-        <v>0.04741823024467683</v>
+        <v>0.2392207624857774</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07783466666666666</v>
+        <v>10.376254</v>
       </c>
       <c r="N4">
-        <v>0.233504</v>
+        <v>31.128762</v>
       </c>
       <c r="O4">
-        <v>0.006481737759933703</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.006481737759933702</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.3550524316088889</v>
+        <v>280.3017217238233</v>
       </c>
       <c r="R4">
-        <v>3.19547188448</v>
+        <v>2522.71549551441</v>
       </c>
       <c r="S4">
-        <v>0.0003073525334861522</v>
+        <v>0.2392207624857774</v>
       </c>
       <c r="T4">
-        <v>0.0003073525334861521</v>
+        <v>0.2392207624857774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.561623333333333</v>
+        <v>0.4780740000000001</v>
       </c>
       <c r="H5">
-        <v>13.68487</v>
+        <v>1.434222</v>
       </c>
       <c r="I5">
-        <v>0.04741823024467683</v>
+        <v>0.004233590271206475</v>
       </c>
       <c r="J5">
-        <v>0.04741823024467683</v>
+        <v>0.004233590271206476</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.93046766666667</v>
+        <v>10.376254</v>
       </c>
       <c r="N5">
-        <v>35.791403</v>
+        <v>31.128762</v>
       </c>
       <c r="O5">
-        <v>0.9935182622400663</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9935182622400662</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>54.42229968584556</v>
+        <v>4.960617254796001</v>
       </c>
       <c r="R5">
-        <v>489.8006971726101</v>
+        <v>44.64555529316401</v>
       </c>
       <c r="S5">
-        <v>0.04711087771119068</v>
+        <v>0.004233590271206475</v>
       </c>
       <c r="T5">
-        <v>0.04711087771119067</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>25.456719</v>
-      </c>
-      <c r="H6">
-        <v>76.37015699999999</v>
-      </c>
-      <c r="I6">
-        <v>0.2646234628789398</v>
-      </c>
-      <c r="J6">
-        <v>0.2646234628789398</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.07783466666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.233504</v>
-      </c>
-      <c r="O6">
-        <v>0.006481737759933703</v>
-      </c>
-      <c r="P6">
-        <v>0.006481737759933702</v>
-      </c>
-      <c r="Q6">
-        <v>1.981415237792</v>
-      </c>
-      <c r="R6">
-        <v>17.832737140128</v>
-      </c>
-      <c r="S6">
-        <v>0.001715219891506839</v>
-      </c>
-      <c r="T6">
-        <v>0.001715219891506839</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>25.456719</v>
-      </c>
-      <c r="H7">
-        <v>76.37015699999999</v>
-      </c>
-      <c r="I7">
-        <v>0.2646234628789398</v>
-      </c>
-      <c r="J7">
-        <v>0.2646234628789398</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>11.93046766666667</v>
-      </c>
-      <c r="N7">
-        <v>35.791403</v>
-      </c>
-      <c r="O7">
-        <v>0.9935182622400663</v>
-      </c>
-      <c r="P7">
-        <v>0.9935182622400662</v>
-      </c>
-      <c r="Q7">
-        <v>303.7105629289189</v>
-      </c>
-      <c r="R7">
-        <v>2733.395066360271</v>
-      </c>
-      <c r="S7">
-        <v>0.262908242987433</v>
-      </c>
-      <c r="T7">
-        <v>0.262908242987433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.6118250000000001</v>
-      </c>
-      <c r="H8">
-        <v>1.835475</v>
-      </c>
-      <c r="I8">
-        <v>0.006359941757455366</v>
-      </c>
-      <c r="J8">
-        <v>0.006359941757455366</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.07783466666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.233504</v>
-      </c>
-      <c r="O8">
-        <v>0.006481737759933703</v>
-      </c>
-      <c r="P8">
-        <v>0.006481737759933702</v>
-      </c>
-      <c r="Q8">
-        <v>0.04762119493333333</v>
-      </c>
-      <c r="R8">
-        <v>0.4285907544000001</v>
-      </c>
-      <c r="S8">
-        <v>4.122347464027756E-05</v>
-      </c>
-      <c r="T8">
-        <v>4.122347464027756E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.6118250000000001</v>
-      </c>
-      <c r="H9">
-        <v>1.835475</v>
-      </c>
-      <c r="I9">
-        <v>0.006359941757455366</v>
-      </c>
-      <c r="J9">
-        <v>0.006359941757455366</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>11.93046766666667</v>
-      </c>
-      <c r="N9">
-        <v>35.791403</v>
-      </c>
-      <c r="O9">
-        <v>0.9935182622400663</v>
-      </c>
-      <c r="P9">
-        <v>0.9935182622400662</v>
-      </c>
-      <c r="Q9">
-        <v>7.299358380158334</v>
-      </c>
-      <c r="R9">
-        <v>65.69422542142502</v>
-      </c>
-      <c r="S9">
-        <v>0.006318718282815088</v>
-      </c>
-      <c r="T9">
-        <v>0.006318718282815088</v>
+        <v>0.004233590271206476</v>
       </c>
     </row>
   </sheetData>
